--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1981372.88542206</v>
+        <v>2071330.69956541</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577129</v>
+        <v>612367.9462114758</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6269964.056179058</v>
+        <v>6628205.860399703</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>147.5308616227235</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -671,13 +673,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>315.6260277756818</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>132.6767302400307</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -874,16 +876,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>171.2904723222305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>24.24883600065413</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>311.6235970459963</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.27530057100373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1104,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1114,10 +1116,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>90.90136429434182</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1133,25 +1135,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>24.60213788908017</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>271.6271238074471</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>24.88423150318614</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>189.3500725992354</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1424,19 +1426,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>62.98029696688034</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>59.16373895426923</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1591,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1625,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>117.9975114437577</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1673,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1771,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8121020651556</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1819,7 +1821,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>22.1732928300788</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>10.9798034551978</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2059,7 +2061,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2242,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>98.15366458399269</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>121.8170956905235</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2302,10 +2304,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>7.64891426802844</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>123.0673923170405</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>12.82988994717986</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2950,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,22 +3000,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>108.3150987014989</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>132.8360086854351</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3284,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396352</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>57.24387488545712</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>209.2324091128526</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3512,7 +3514,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>132.7982881284981</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>234.4623430524753</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3746,19 +3748,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>147.7568905504126</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3898,19 +3900,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>60.15466974967032</v>
       </c>
       <c r="G43" t="n">
-        <v>152.0898487279629</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3983,16 +3985,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>24.32338639214848</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4034,13 +4036,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.0569220260799</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4192,10 +4194,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>199.7708763830069</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>283.401124790218</v>
+        <v>826.0424325316596</v>
       </c>
       <c r="C2" t="n">
-        <v>134.3800524440326</v>
+        <v>803.1821065853638</v>
       </c>
       <c r="D2" t="n">
-        <v>115.1278356694369</v>
+        <v>783.9298898107681</v>
       </c>
       <c r="E2" t="n">
-        <v>93.19129985769854</v>
+        <v>761.9933539990298</v>
       </c>
       <c r="F2" t="n">
-        <v>72.10752208750284</v>
+        <v>740.909576228834</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>336.5705138182826</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K2" t="n">
-        <v>493.6978991635576</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="L2" t="n">
-        <v>950.4838058662885</v>
+        <v>403.5871017449296</v>
       </c>
       <c r="M2" t="n">
-        <v>1271.257381456703</v>
+        <v>882.5260259873578</v>
       </c>
       <c r="N2" t="n">
-        <v>1271.257381456703</v>
+        <v>882.5260259873578</v>
       </c>
       <c r="O2" t="n">
-        <v>1728.043288159434</v>
+        <v>882.5260259873578</v>
       </c>
       <c r="P2" t="n">
-        <v>1728.043288159434</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1520.30675795911</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="U2" t="n">
-        <v>1520.30675795911</v>
+        <v>1572.384561085424</v>
       </c>
       <c r="V2" t="n">
-        <v>1520.30675795911</v>
+        <v>1572.384561085424</v>
       </c>
       <c r="W2" t="n">
-        <v>1520.30675795911</v>
+        <v>1572.384561085424</v>
       </c>
       <c r="X2" t="n">
-        <v>1108.586759126858</v>
+        <v>1564.704966293575</v>
       </c>
       <c r="Y2" t="n">
-        <v>703.249489081748</v>
+        <v>1245.89079682319</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>693.5426250668169</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>576.0367215843216</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>472.1967630996066</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>367.4948293725438</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>273.848999055448</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>179.795227273052</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.4191340353616</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>126.4191340353616</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273854</v>
+        <v>398.1166233149527</v>
       </c>
       <c r="K3" t="n">
-        <v>44.35863542273854</v>
+        <v>398.1166233149527</v>
       </c>
       <c r="L3" t="n">
-        <v>44.35863542273854</v>
+        <v>498.2899918885871</v>
       </c>
       <c r="M3" t="n">
-        <v>393.2225928484409</v>
+        <v>977.2289161310152</v>
       </c>
       <c r="N3" t="n">
-        <v>850.0084995511718</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="O3" t="n">
-        <v>1306.794406253903</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="P3" t="n">
-        <v>1306.794406253903</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1853.782517177126</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1711.902581474804</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1527.134385394441</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1322.161246533707</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1125.639869366924</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>962.1625231335872</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>822.4696344868796</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>302.8887665676972</v>
+        <v>1089.691951201762</v>
       </c>
       <c r="C4" t="n">
-        <v>302.8887665676972</v>
+        <v>917.7193880806781</v>
       </c>
       <c r="D4" t="n">
-        <v>302.8887665676972</v>
+        <v>754.4026152074488</v>
       </c>
       <c r="E4" t="n">
-        <v>136.6805607205508</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>136.6805607205508</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>136.6805607205508</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>263.4395936666639</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="L4" t="n">
-        <v>618.1289149610848</v>
+        <v>450.8827848108962</v>
       </c>
       <c r="M4" t="n">
-        <v>1009.314709931336</v>
+        <v>842.068579781147</v>
       </c>
       <c r="N4" t="n">
-        <v>1386.806220807371</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1742.234349487134</v>
+        <v>1517.507422453209</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303045</v>
       </c>
       <c r="S4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303045</v>
       </c>
       <c r="T4" t="n">
-        <v>1555.22166195441</v>
+        <v>1644.728803528945</v>
       </c>
       <c r="U4" t="n">
-        <v>1275.037213454714</v>
+        <v>1364.544355029249</v>
       </c>
       <c r="V4" t="n">
-        <v>993.3257460627433</v>
+        <v>1364.544355029249</v>
       </c>
       <c r="W4" t="n">
-        <v>718.4733422352563</v>
+        <v>1089.691951201762</v>
       </c>
       <c r="X4" t="n">
-        <v>475.9094456810614</v>
+        <v>1089.691951201762</v>
       </c>
       <c r="Y4" t="n">
-        <v>302.8887665676972</v>
+        <v>1089.691951201762</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>954.9180889526423</v>
+        <v>972.9074190595575</v>
       </c>
       <c r="C5" t="n">
-        <v>932.0577630063465</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D5" t="n">
-        <v>912.8055462317508</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>890.8690104200124</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>465.7448286094126</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>61.40576619886122</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>61.40576619886122</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>493.6978991635576</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>493.6978991635576</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>950.4838058662885</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O5" t="n">
-        <v>1407.269712569019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P5" t="n">
-        <v>1407.269712569019</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1383.742914040727</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="W5" t="n">
-        <v>1383.742914040727</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="X5" t="n">
-        <v>972.0229152084739</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y5" t="n">
-        <v>970.7260492037683</v>
+        <v>988.7153793106835</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273858</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>501.1445421254695</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>501.1445421254695</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>501.1445421254695</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>932.0278096358747</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O6" t="n">
-        <v>1388.813716338606</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>208.8845555819107</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>36.91199246082674</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>36.91199246082674</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>36.91199246082674</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>36.91199246082674</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>985.6798532447758</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1363.171364120812</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1718.599492800575</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1798.56100972851</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1555.22166195441</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U7" t="n">
-        <v>1275.037213454714</v>
+        <v>1727.553143168988</v>
       </c>
       <c r="V7" t="n">
-        <v>993.3257460627433</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="W7" t="n">
-        <v>718.4733422352563</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="X7" t="n">
-        <v>475.9094456810614</v>
+        <v>1354.022115883742</v>
       </c>
       <c r="Y7" t="n">
-        <v>249.5666773708034</v>
+        <v>1127.679347573484</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>526.3839111742037</v>
+        <v>1295.32778354778</v>
       </c>
       <c r="C8" t="n">
-        <v>99.48318118750379</v>
+        <v>1272.467457601484</v>
       </c>
       <c r="D8" t="n">
-        <v>80.23096441290814</v>
+        <v>849.1748367864839</v>
       </c>
       <c r="E8" t="n">
-        <v>58.29442860116974</v>
+        <v>423.1978969343414</v>
       </c>
       <c r="F8" t="n">
-        <v>37.21065083097405</v>
+        <v>402.1141191641457</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>357.6855680512415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>814.4714747539724</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M8" t="n">
-        <v>814.4714747539724</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N8" t="n">
-        <v>1271.257381456703</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1624.67405208597</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1624.67405208597</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1624.67405208597</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>1228.282702386317</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X8" t="n">
-        <v>816.5627035540642</v>
+        <v>1312.432609803611</v>
       </c>
       <c r="Y8" t="n">
-        <v>542.1918714253297</v>
+        <v>1311.135743798905</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>308.6094817404178</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="L9" t="n">
-        <v>475.2419029331439</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="M9" t="n">
-        <v>932.0278096358747</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N9" t="n">
-        <v>932.0278096358747</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O9" t="n">
-        <v>932.0278096358747</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>491.3411268178822</v>
+        <v>789.560603642277</v>
       </c>
       <c r="C10" t="n">
-        <v>466.2055394409265</v>
+        <v>617.588040521193</v>
       </c>
       <c r="D10" t="n">
-        <v>302.8887665676972</v>
+        <v>454.2712676479637</v>
       </c>
       <c r="E10" t="n">
-        <v>136.6805607205508</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F10" t="n">
-        <v>136.6805607205508</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G10" t="n">
-        <v>136.6805607205508</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>94.40332068498475</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>449.0926419794055</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>840.2784369496563</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1432.125227786372</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U10" t="n">
-        <v>1432.125227786372</v>
+        <v>1727.553143168988</v>
       </c>
       <c r="V10" t="n">
-        <v>1150.413760394401</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="W10" t="n">
-        <v>1150.413760394401</v>
+        <v>1170.98927194953</v>
       </c>
       <c r="X10" t="n">
-        <v>907.8498638402058</v>
+        <v>979.7265723543426</v>
       </c>
       <c r="Y10" t="n">
-        <v>681.5070955299478</v>
+        <v>979.7265723543426</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1787.890474083922</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1360.989744097222</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>937.6971232822222</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>511.7201834300797</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>511.7201834300797</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>787.9925577384986</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L11" t="n">
-        <v>787.9925577384986</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M11" t="n">
-        <v>1056.239633142214</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N11" t="n">
-        <v>1953.232223959333</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O11" t="n">
-        <v>2798.376874110145</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P11" t="n">
-        <v>3506.656153268073</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268073</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3298.919623067749</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3040.564713664162</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2683.075298790412</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2683.075298790412</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2271.355299958159</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2207.738838375451</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>72.48424976299951</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="N12" t="n">
-        <v>275.4928852935398</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="O12" t="n">
-        <v>1164.974163305011</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P12" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.318587109523</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C13" t="n">
-        <v>244.3460239884391</v>
+        <v>509.1843230306275</v>
       </c>
       <c r="D13" t="n">
-        <v>244.3460239884391</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="E13" t="n">
-        <v>244.3460239884391</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F13" t="n">
-        <v>72.48424976299951</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G13" t="n">
-        <v>72.48424976299951</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299951</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.478888179295</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>1912.139540405195</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1631.9550919055</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1350.243624513528</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1075.391220686041</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>832.8273241318466</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y13" t="n">
-        <v>606.4845558215886</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2475.986163163958</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2049.085433177258</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1625.792812362258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>774.6916906995161</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>72.48424976299951</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>72.48424976299951</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K14" t="n">
-        <v>72.48424976299951</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L14" t="n">
-        <v>969.4768405801184</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M14" t="n">
-        <v>1866.469431397237</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N14" t="n">
-        <v>2763.462022214356</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>3608.606672365168</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>3624.212488149975</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.212488149975</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149975</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3624.212488149975</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3403.286917194609</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3403.286917194609</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3284.097511695863</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2887.706161996211</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2475.986163163958</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2475.986163163958</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>344.1817390425906</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>344.1817390425906</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M15" t="n">
-        <v>344.1817390425906</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="N15" t="n">
-        <v>527.5451254692584</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>343.6019286254902</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="C16" t="n">
-        <v>343.6019286254902</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="D16" t="n">
-        <v>343.6019286254902</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="E16" t="n">
-        <v>343.6019286254902</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F16" t="n">
-        <v>238.7412194687674</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G16" t="n">
-        <v>72.48424976299951</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2082.762229695263</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>1839.422881921163</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1559.238433421467</v>
+        <v>1799.805466766237</v>
       </c>
       <c r="V16" t="n">
-        <v>1277.526966029496</v>
+        <v>1518.093999374266</v>
       </c>
       <c r="W16" t="n">
-        <v>1002.674562202009</v>
+        <v>1243.241595546779</v>
       </c>
       <c r="X16" t="n">
-        <v>760.1106656478138</v>
+        <v>1000.677698992584</v>
       </c>
       <c r="Y16" t="n">
-        <v>533.7678973375558</v>
+        <v>774.3349306823259</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5509,7 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5522,19 +5524,19 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5592,19 +5594,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.799010768326</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.799010768326</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>1210.799010768326</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>373.4203922683193</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C19" t="n">
-        <v>201.4478291472353</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D19" t="n">
-        <v>201.4478291472353</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E19" t="n">
-        <v>201.4478291472353</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1307.345429672325</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.493025844838</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X19" t="n">
-        <v>789.9291292906429</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.5863609803849</v>
+        <v>1024.601983369787</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L20" t="n">
-        <v>1983.783825177543</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M20" t="n">
-        <v>2988.069926596601</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5838,19 +5840,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>939.4897558901635</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>939.4897558901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>373.4203922683193</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C22" t="n">
-        <v>201.4478291472353</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D22" t="n">
-        <v>201.4478291472353</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E22" t="n">
-        <v>201.4478291472353</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5908,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2112.629556101561</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>2112.629556101561</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1832.445107601865</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1550.733640209894</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>1275.881236382407</v>
       </c>
       <c r="X22" t="n">
-        <v>789.9291292906429</v>
+        <v>1275.881236382407</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.5863609803849</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="23">
@@ -6005,10 +6007,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6063,19 +6065,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M24" t="n">
-        <v>1910.990343986338</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>446.1370507523521</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>274.1644876312681</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2185.297351822124</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>1941.958004048024</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U25" t="n">
-        <v>1661.773555548329</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V25" t="n">
-        <v>1380.062088156358</v>
+        <v>1710.626312340059</v>
       </c>
       <c r="W25" t="n">
-        <v>1105.20968432887</v>
+        <v>1435.773908512572</v>
       </c>
       <c r="X25" t="n">
-        <v>862.6457877746757</v>
+        <v>1193.210011958377</v>
       </c>
       <c r="Y25" t="n">
-        <v>636.3030194644177</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,7 +6314,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>326.3817789554925</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C28" t="n">
-        <v>326.3817789554925</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D28" t="n">
-        <v>326.3817789554925</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>326.3817789554925</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>326.3817789554925</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>786.1869982294937</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6537,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N30" t="n">
-        <v>1191.617659878699</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.7678889587429</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C31" t="n">
-        <v>434.7678889587429</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D31" t="n">
-        <v>434.7678889587429</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E31" t="n">
-        <v>268.5596831115964</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>4958.687866371026</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>4958.687866371026</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X31" t="n">
-        <v>851.2766259810664</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y31" t="n">
-        <v>624.9338576708085</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6780,19 +6782,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1529.586448057074</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1529.586448057074</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>446.1370507523521</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>274.1644876312681</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D34" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E34" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2185.297351822124</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T34" t="n">
-        <v>1941.958004048024</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U34" t="n">
-        <v>1661.773555548329</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V34" t="n">
-        <v>1380.062088156358</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W34" t="n">
-        <v>1105.20968432887</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X34" t="n">
-        <v>862.6457877746757</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y34" t="n">
-        <v>636.3030194644177</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6938,46 +6940,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>786.1869982294937</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7011,28 +7013,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M36" t="n">
-        <v>730.647150085061</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N36" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>612.3940204581199</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C37" t="n">
-        <v>440.4214573370359</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D37" t="n">
-        <v>440.4214573370359</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="E37" t="n">
-        <v>440.4214573370359</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="F37" t="n">
         <v>268.5596831115964</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.030525254097</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1546.319057862125</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1271.466654034638</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1028.902757480444</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>802.5599891701856</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7190,34 +7192,34 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291425</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7242,37 +7244,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M39" t="n">
-        <v>1429.986740661465</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N39" t="n">
-        <v>1429.986740661465</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O39" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>778.6022263052664</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C40" t="n">
-        <v>606.6296631841824</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="D40" t="n">
-        <v>606.6296631841824</v>
+        <v>380.2386668759551</v>
       </c>
       <c r="E40" t="n">
-        <v>440.4214573370359</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7366,16 +7368,16 @@
         <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>1522.361294997206</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.508891169719</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>1004.944994615524</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>778.6022263052664</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1645.670160901264</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>1218.769430914564</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>795.4768100995644</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>795.4768100995644</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>370.3526282889646</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>370.3526282889646</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>72.48424976299947</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>72.48424976299947</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>787.9925577384986</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>787.9925577384986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>787.9925577384986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>1684.985148555617</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O41" t="n">
-        <v>2342.29139460596</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P41" t="n">
-        <v>3050.570673763887</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268071</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149974</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149974</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3474.963103755617</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3216.608194352029</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2859.118779478279</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2462.727429778626</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2051.007430946373</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>1645.670160901264</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944547</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119595</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272445</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001817</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>662.969176331339</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>662.969176331339</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M42" t="n">
-        <v>662.969176331339</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
-        <v>662.969176331339</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>700.8286864422319</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.227638861225</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145174</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>569.9446969357482</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C43" t="n">
-        <v>397.9721338146642</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D43" t="n">
-        <v>397.9721338146642</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="E43" t="n">
-        <v>397.9721338146642</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="F43" t="n">
-        <v>226.1103595892246</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2082.762229695263</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1839.422881921163</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1559.238433421467</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1277.526966029496</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1002.674562202009</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X43" t="n">
-        <v>760.1106656478138</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.1106656478138</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1407.267730795614</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>980.3670008089141</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>557.0743799939144</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>532.505302830128</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>107.3811210195283</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>600.1541536380292</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>600.1541536380292</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1497.146744455148</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>1497.146744455148</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O44" t="n">
-        <v>2342.29139460596</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P44" t="n">
-        <v>3050.570673763887</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268071</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149974</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023114</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3298.919623067747</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3040.564713664159</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3040.564713664159</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2644.173363964506</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2232.453365132254</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1827.116095087144</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944547</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119595</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272445</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001817</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>520.0338126636115</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>1417.02640348073</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O45" t="n">
-        <v>1417.02640348073</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P45" t="n">
-        <v>1417.02640348073</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.227638861225</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145174</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>554.3504983274311</v>
+        <v>681.1568861517115</v>
       </c>
       <c r="C46" t="n">
-        <v>554.3504983274311</v>
+        <v>509.1843230306275</v>
       </c>
       <c r="D46" t="n">
-        <v>554.3504983274311</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="E46" t="n">
-        <v>388.1422924802847</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F46" t="n">
-        <v>216.2805182548451</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G46" t="n">
-        <v>216.2805182548451</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>72.48424976299947</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2252.897277176128</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>2009.557929402028</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>1729.373480902332</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V46" t="n">
-        <v>1447.662013510361</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W46" t="n">
-        <v>1172.809609682874</v>
+        <v>1340.22951972823</v>
       </c>
       <c r="X46" t="n">
-        <v>930.2457131286789</v>
+        <v>1097.665623174035</v>
       </c>
       <c r="Y46" t="n">
-        <v>703.9029448184209</v>
+        <v>871.3228548637771</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>406.8827156170797</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4449756170225</v>
+        <v>521.2079540533997</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>123.7003074956784</v>
       </c>
       <c r="M3" t="n">
-        <v>375.4846162958657</v>
+        <v>506.8734716662959</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>505.1197193675096</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>506.9485808761901</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8146,16 +8148,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>402.0534574160406</v>
+        <v>343.9920464223665</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>360.1383873221887</v>
+        <v>451.134864077236</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8289,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>456.5786519614258</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8380,7 +8382,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>335.7669652041454</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8389,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8453,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>359.7783135124</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>111.3736009736648</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>97.8252091287798</v>
       </c>
       <c r="L9" t="n">
-        <v>190.8306636765791</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8611,7 +8613,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8620,7 +8622,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>255.3890173889887</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
@@ -8690,16 +8692,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>308.3879047213668</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>943.33274487194</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8711,7 +8713,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,10 +8777,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>145.3082203566077</v>
       </c>
       <c r="N12" t="n">
-        <v>226.4022560221682</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>921.6378271075471</v>
@@ -8790,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701167</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369256</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719399</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>53.3388120979151</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>206.5585700586607</v>
+        <v>185.1977413813447</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9170,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>124.3756766890881</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,22 +9242,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>730.4358626697095</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9401,16 +9403,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>849.7962292804204</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>632.4842746885297</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>868.740257769232</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9720,13 +9722,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1004.802661823039</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>726.5568076874005</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10121,19 +10123,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>489.184786214375</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10197,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>384.9242974632712</v>
       </c>
       <c r="N30" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10212,7 +10214,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10355,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10367,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>397.6042905607445</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10428,22 +10430,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>58.21512474482097</v>
       </c>
       <c r="O33" t="n">
-        <v>408.4283502568324</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10586,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>726.5568076874005</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>466.3243076206841</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10671,19 +10673,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>657.7881306933709</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>774.1253005797566</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10838,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286654</v>
+        <v>124.3756766890881</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10896,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>190.532390813586</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>40.20030028999405</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -10923,7 +10925,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719394</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>701.3366624371786</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>397.6042905607445</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11142,22 +11144,22 @@
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>186.3697998820327</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>61.41381912716452</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11297,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>202.4983836818137</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369252</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11315,7 +11317,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>397.6042905607445</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11382,13 +11384,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>475.1670460685017</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>927.396150251035</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>198.1293616011689</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -11397,7 +11399,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>338.3036003777782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>111.0890985356039</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>235.9170092812553</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,16 +23661,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>66.33105441802961</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>255.20931118462</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>177.2845055697472</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>46.61660131553296</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>216.4304263591269</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>41.52700769166967</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>228.0760643491791</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,22 +24888,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>132.5908555948602</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>107.3022489032178</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25321,7 +25323,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>112.8992815977281</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.15019490184619</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>31.74783566017683</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>44.43200966557609</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>70.95942469540057</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>109.9884867335149</v>
       </c>
       <c r="G43" t="n">
-        <v>12.50455128074731</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25871,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>397.3937840614725</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.20738699886508</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>72.33300340620519</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>555538.3516404195</v>
+        <v>556915.2427115982</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>555538.3516404195</v>
+        <v>561373.3139300952</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>555538.3516404195</v>
+        <v>561373.3139300952</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>459303.1905030718</v>
+        <v>577673.2831331708</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>459303.1905030718</v>
+        <v>577673.2831331708</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>577673.2831331707</v>
+        <v>577673.2831331708</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>577673.2831331707</v>
+        <v>577673.2831331708</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>577673.2831331707</v>
+        <v>577673.2831331708</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>459303.1905030714</v>
+        <v>577673.2831331708</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>459303.1905030715</v>
+        <v>577673.2831331708</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509637.3345097676</v>
+        <v>509637.3345097678</v>
       </c>
       <c r="C2" t="n">
-        <v>509637.3345097677</v>
+        <v>509637.3345097678</v>
       </c>
       <c r="D2" t="n">
-        <v>509637.3345097677</v>
+        <v>509637.3345097679</v>
       </c>
       <c r="E2" t="n">
-        <v>391028.3185382718</v>
+        <v>491776.6027452664</v>
       </c>
       <c r="F2" t="n">
-        <v>391028.3185382718</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="G2" t="n">
         <v>491776.6027452662</v>
       </c>
       <c r="H2" t="n">
-        <v>491776.6027452662</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="I2" t="n">
         <v>491776.6027452664</v>
       </c>
       <c r="J2" t="n">
+        <v>491776.6027452665</v>
+      </c>
+      <c r="K2" t="n">
+        <v>491776.6027452665</v>
+      </c>
+      <c r="L2" t="n">
+        <v>491776.6027452665</v>
+      </c>
+      <c r="M2" t="n">
+        <v>491776.6027452665</v>
+      </c>
+      <c r="N2" t="n">
+        <v>491776.6027452664</v>
+      </c>
+      <c r="O2" t="n">
         <v>491776.6027452662</v>
       </c>
-      <c r="K2" t="n">
-        <v>491776.6027452664</v>
-      </c>
-      <c r="L2" t="n">
-        <v>491776.6027452663</v>
-      </c>
-      <c r="M2" t="n">
-        <v>491776.6027452663</v>
-      </c>
-      <c r="N2" t="n">
-        <v>491776.6027452663</v>
-      </c>
-      <c r="O2" t="n">
-        <v>391028.3185382716</v>
-      </c>
       <c r="P2" t="n">
-        <v>391028.3185382716</v>
+        <v>491776.6027452662</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361226</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096018</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.92009431</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701983</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091333</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207111.2789421974</v>
+        <v>203366.9722795535</v>
       </c>
       <c r="C4" t="n">
-        <v>207111.2789421974</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="D4" t="n">
-        <v>207111.2789421974</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>68898.71414051214</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="F4" t="n">
-        <v>68898.71414051212</v>
+        <v>86696.74064784772</v>
       </c>
       <c r="G4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="H4" t="n">
-        <v>86696.74064784775</v>
+        <v>86696.74064784772</v>
       </c>
       <c r="I4" t="n">
         <v>86696.74064784778</v>
@@ -26442,22 +26444,22 @@
         <v>86696.74064784776</v>
       </c>
       <c r="K4" t="n">
+        <v>86696.74064784779</v>
+      </c>
+      <c r="L4" t="n">
         <v>86696.74064784776</v>
-      </c>
-      <c r="L4" t="n">
-        <v>86696.74064784778</v>
       </c>
       <c r="M4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784775</v>
+        <v>86696.74064784774</v>
       </c>
       <c r="O4" t="n">
-        <v>68898.71414051209</v>
+        <v>86696.74064784779</v>
       </c>
       <c r="P4" t="n">
-        <v>68898.71414051209</v>
+        <v>86696.74064784778</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987962</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987959</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987959</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86219.62067922135</v>
+        <v>81104.44333846183</v>
       </c>
       <c r="C6" t="n">
-        <v>240845.3412973419</v>
+        <v>227540.5210461071</v>
       </c>
       <c r="D6" t="n">
-        <v>240845.3412973419</v>
+        <v>250947.3547197195</v>
       </c>
       <c r="E6" t="n">
-        <v>134277.9065682783</v>
+        <v>111590.4433523484</v>
       </c>
       <c r="F6" t="n">
-        <v>267041.57457788</v>
+        <v>327329.7999089889</v>
       </c>
       <c r="G6" t="n">
-        <v>225169.8798146788</v>
+        <v>327329.7999089887</v>
       </c>
       <c r="H6" t="n">
-        <v>327329.7999089888</v>
+        <v>327329.7999089889</v>
       </c>
       <c r="I6" t="n">
         <v>327329.7999089889</v>
       </c>
       <c r="J6" t="n">
-        <v>206607.2829662319</v>
+        <v>200752.5313287002</v>
       </c>
       <c r="K6" t="n">
-        <v>327329.7999089889</v>
+        <v>308683.1995519692</v>
       </c>
       <c r="L6" t="n">
+        <v>327329.799908989</v>
+      </c>
+      <c r="M6" t="n">
+        <v>147265.9284538213</v>
+      </c>
+      <c r="N6" t="n">
+        <v>327329.799908989</v>
+      </c>
+      <c r="O6" t="n">
+        <v>327329.7999089887</v>
+      </c>
+      <c r="P6" t="n">
         <v>327329.7999089888</v>
-      </c>
-      <c r="M6" t="n">
-        <v>216520.4397998557</v>
-      </c>
-      <c r="N6" t="n">
-        <v>327329.7999089889</v>
-      </c>
-      <c r="O6" t="n">
-        <v>267041.57457788</v>
-      </c>
-      <c r="P6" t="n">
-        <v>267041.5745778799</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374938</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26823,13 +26825,13 @@
         <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374934</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374934</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.730795535363</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771595</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.730795535363</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>275.1008610641093</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27391,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27442,10 +27444,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>85.65786956897676</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27539,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>31.86939354864427</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.78886830492485</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>10.29906654330937</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>42.29092367901671</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>147.9890084539413</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>149.2368932943111</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27855,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>375.6935338973657</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>129.6567735372114</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>145.368605986687</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>50.78818498941749</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>368.5706731844567</v>
       </c>
       <c r="M2" t="n">
-        <v>324.0137127175907</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>101.1852207814489</v>
       </c>
       <c r="M3" t="n">
-        <v>352.3878357835378</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34866,16 +34868,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>381.3045564404402</v>
+        <v>323.2431454467661</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.0137127175907</v>
+        <v>415.010189472638</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35009,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>435.2356237478841</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35100,7 +35102,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>313.1915253126596</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35109,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>75.42597529544646</v>
       </c>
       <c r="L9" t="n">
-        <v>168.3155769623496</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35340,7 +35342,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>234.6401164133883</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
@@ -35410,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>270.956641821935</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35431,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,10 +35497,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>122.2114398442797</v>
       </c>
       <c r="N12" t="n">
-        <v>205.0592278086265</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>898.4659373853249</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374938</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374938</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374938</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>15.7634502876838</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>185.215541845119</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>707.2639729474873</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36121,16 +36123,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>811.4841868477976</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>595.2046518540836</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>845.643477256904</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>981.7058813107108</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>690.7922068925911</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36841,19 +36843,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>451.905163379929</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>361.8275169509432</v>
       </c>
       <c r="N30" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37075,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37087,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>361.4796159561464</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>36.8720965312793</v>
       </c>
       <c r="O33" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>690.7922068925911</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>428.7489458104528</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>634.6913501810429</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>752.782272366215</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.492718418434</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37616,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>167.4356103012581</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>17.02841056777183</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374934</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>663.9457030811544</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>361.4796159561464</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37862,22 +37864,22 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>166.7337828870043</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374934</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38035,7 +38037,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>361.4796159561464</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38102,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.0702655561738</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>906.0531220374934</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>174.9574718789467</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2071330.69956541</v>
+        <v>2070634.038360319</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954496</v>
+        <v>11843801.51954497</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114758</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -670,7 +670,7 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>128.0363319087233</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -679,7 +679,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>315.6260277756818</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>128.9342698104296</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>132.6767302400307</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -876,16 +876,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>311.6235970459963</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>193.7237604659992</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1068,7 +1068,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1104,7 +1104,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>2.317367624350772</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>90.90136429434182</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1138,16 +1138,16 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>24.60213788908017</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -1201,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>319.2281035983191</v>
       </c>
     </row>
     <row r="9">
@@ -1302,10 +1302,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>161.673798810038</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>189.3500725992354</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>59.16373895426923</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1612,7 +1612,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855901</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1767,10 +1767,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>162.725242586145</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1821,16 +1821,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>22.1732928300788</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.9798034551978</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399271</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2061,7 +2061,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453622</v>
+        <v>421.7171704536202</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>96.44420510686398</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>121.8170956905235</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2304,10 +2304,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2541,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>121.580538509762</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.64891426802844</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2718,13 +2718,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>12.82988994717986</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2952,13 +2952,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -2967,10 +2967,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>108.3150987014989</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>211.0515495966693</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>85.60638373248223</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3201,10 +3201,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396352</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>57.24387488545712</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3663,22 +3663,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>132.7982881284981</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>168.1487656894605</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3900,16 +3900,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>60.15466974967032</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686699</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4194,10 +4194,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>199.7708763830069</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>826.0424325316596</v>
+        <v>969.1851542086222</v>
       </c>
       <c r="C2" t="n">
-        <v>803.1821065853638</v>
+        <v>946.3248282623264</v>
       </c>
       <c r="D2" t="n">
-        <v>783.9298898107681</v>
+        <v>927.0726114877307</v>
       </c>
       <c r="E2" t="n">
-        <v>761.9933539990298</v>
+        <v>905.1360756759923</v>
       </c>
       <c r="F2" t="n">
-        <v>740.909576228834</v>
+        <v>775.8064474853627</v>
       </c>
       <c r="G2" t="n">
-        <v>336.5705138182826</v>
+        <v>371.4673850748113</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231743</v>
+        <v>73.59900654884613</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231743</v>
+        <v>401.3055941092128</v>
       </c>
       <c r="K2" t="n">
-        <v>38.70213529231743</v>
+        <v>403.5871017449274</v>
       </c>
       <c r="L2" t="n">
-        <v>403.5871017449296</v>
+        <v>403.5871017449274</v>
       </c>
       <c r="M2" t="n">
-        <v>882.5260259873578</v>
+        <v>403.5871017449274</v>
       </c>
       <c r="N2" t="n">
-        <v>882.5260259873578</v>
+        <v>403.5871017449274</v>
       </c>
       <c r="O2" t="n">
-        <v>882.5260259873578</v>
+        <v>882.5260259873545</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229786</v>
+        <v>1361.464950229782</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733969</v>
+        <v>1817.550429733965</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615867</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489012</v>
+        <v>1830.739470489008</v>
       </c>
       <c r="T2" t="n">
-        <v>1830.739470489012</v>
+        <v>1609.813899533641</v>
       </c>
       <c r="U2" t="n">
-        <v>1572.384561085424</v>
+        <v>1351.458990130053</v>
       </c>
       <c r="V2" t="n">
-        <v>1572.384561085424</v>
+        <v>993.9695752563025</v>
       </c>
       <c r="W2" t="n">
-        <v>1572.384561085424</v>
+        <v>993.9695752563025</v>
       </c>
       <c r="X2" t="n">
-        <v>1564.704966293575</v>
+        <v>986.2899804644538</v>
       </c>
       <c r="Y2" t="n">
-        <v>1245.89079682319</v>
+        <v>984.9931144597482</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668169</v>
+        <v>605.8256263237726</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843216</v>
+        <v>488.3197228412773</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996066</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725438</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>273.848999055448</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>179.795227273052</v>
+        <v>92.07822853000775</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353616</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4191340353616</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="J3" t="n">
-        <v>398.1166233149527</v>
+        <v>310.3996245719084</v>
       </c>
       <c r="K3" t="n">
-        <v>398.1166233149527</v>
+        <v>310.3996245719084</v>
       </c>
       <c r="L3" t="n">
-        <v>498.2899918885871</v>
+        <v>410.572993145546</v>
       </c>
       <c r="M3" t="n">
-        <v>977.2289161310152</v>
+        <v>889.5119173879731</v>
       </c>
       <c r="N3" t="n">
-        <v>1456.167840373443</v>
+        <v>1368.4508416304</v>
       </c>
       <c r="O3" t="n">
-        <v>1935.106764615871</v>
+        <v>1368.4508416304</v>
       </c>
       <c r="P3" t="n">
-        <v>1935.106764615871</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1935.106764615871</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615871</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177126</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474804</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394441</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533707</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366924</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335872</v>
+        <v>874.4455243905429</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868796</v>
+        <v>734.7526357438353</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1089.691951201762</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="C4" t="n">
-        <v>917.7193880806781</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="D4" t="n">
-        <v>754.4026152074488</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="K4" t="n">
-        <v>96.19346351647545</v>
+        <v>38.71266663273349</v>
       </c>
       <c r="L4" t="n">
-        <v>450.8827848108962</v>
+        <v>393.4019879271543</v>
       </c>
       <c r="M4" t="n">
-        <v>842.068579781147</v>
+        <v>784.5877828974051</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773445</v>
+        <v>1162.079293773441</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453209</v>
+        <v>1517.507422453204</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1808.106634375105</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615867</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303045</v>
+        <v>1888.06815130304</v>
       </c>
       <c r="S4" t="n">
-        <v>1888.068151303045</v>
+        <v>1717.933103822175</v>
       </c>
       <c r="T4" t="n">
-        <v>1644.728803528945</v>
+        <v>1474.593756048075</v>
       </c>
       <c r="U4" t="n">
-        <v>1364.544355029249</v>
+        <v>1194.40930754838</v>
       </c>
       <c r="V4" t="n">
-        <v>1364.544355029249</v>
+        <v>912.6978401564083</v>
       </c>
       <c r="W4" t="n">
-        <v>1089.691951201762</v>
+        <v>637.8454363289213</v>
       </c>
       <c r="X4" t="n">
-        <v>1089.691951201762</v>
+        <v>395.2815397747264</v>
       </c>
       <c r="Y4" t="n">
-        <v>1089.691951201762</v>
+        <v>168.9387714644684</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>972.9074190595575</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C5" t="n">
-        <v>546.0066890728575</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D5" t="n">
-        <v>526.7544722982618</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E5" t="n">
-        <v>100.7775324461193</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>1696.494830002562</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1805.772648188046</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W5" t="n">
-        <v>1805.772648188046</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="X5" t="n">
-        <v>1394.052649355793</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y5" t="n">
-        <v>988.7153793106835</v>
+        <v>1761.899316134962</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
         <v>1302.520320645319</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>961.4223778677166</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>789.4498147466326</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>626.1330418734033</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
         <v>288.0630618008172</v>
@@ -4725,52 +4725,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>1727.553143168988</v>
+        <v>1897.688190649854</v>
       </c>
       <c r="V7" t="n">
-        <v>1445.841675777017</v>
+        <v>1895.347415271722</v>
       </c>
       <c r="W7" t="n">
-        <v>1445.841675777017</v>
+        <v>1620.495011444235</v>
       </c>
       <c r="X7" t="n">
-        <v>1354.022115883742</v>
+        <v>1377.93111489004</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.679347573484</v>
+        <v>1151.588346579782</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.32778354778</v>
+        <v>462.6949895047144</v>
       </c>
       <c r="C8" t="n">
-        <v>1272.467457601484</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D8" t="n">
-        <v>849.1748367864839</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E8" t="n">
-        <v>423.1978969343414</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F8" t="n">
-        <v>402.1141191641457</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
         <v>377.2634748317415</v>
@@ -4804,52 +4804,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>116.829168004879</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M8" t="n">
-        <v>667.4947029893171</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N8" t="n">
-        <v>667.4947029893171</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335517</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>2120.543958335517</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W8" t="n">
-        <v>1724.152608635864</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X8" t="n">
-        <v>1312.432609803611</v>
+        <v>800.9555796531324</v>
       </c>
       <c r="Y8" t="n">
-        <v>1311.135743798905</v>
+        <v>478.5029497558403</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>119.1699405917395</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>669.8354755761777</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>1220.501010560616</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N9" t="n">
-        <v>1771.166545545054</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O9" t="n">
-        <v>1771.166545545054</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>789.560603642277</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>617.588040521193</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>454.2712676479637</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>288.0630618008172</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
         <v>288.0630618008172</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1727.553143168988</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="V10" t="n">
-        <v>1445.841675777017</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1170.98927194953</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>979.7265723543426</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>979.7265723543426</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5041,37 +5041,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2585.460682495986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O11" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
@@ -5083,7 +5083,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5117,25 +5117,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M12" t="n">
-        <v>223.2920388516654</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N12" t="n">
-        <v>223.2920388516654</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O12" t="n">
-        <v>1112.773316863137</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P12" t="n">
         <v>1828.971033901635</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>568.9456755096874</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C13" t="n">
-        <v>509.1843230306275</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D13" t="n">
-        <v>345.8675501573982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E13" t="n">
-        <v>345.8675501573982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W13" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X13" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y13" t="n">
-        <v>759.1116442217531</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
         <v>1690.508147261616</v>
@@ -5269,7 +5269,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623573</v>
@@ -5278,52 +5278,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>292.0244587153436</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747414</v>
+        <v>4659.050190787242</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787242</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5348,25 +5348,25 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H15" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>692.7876399741681</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M15" t="n">
-        <v>1748.774177950213</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N15" t="n">
         <v>1910.990343986338</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>584.1689619702602</v>
+        <v>1177.880204714178</v>
       </c>
       <c r="C16" t="n">
-        <v>584.1689619702602</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D16" t="n">
-        <v>584.1689619702602</v>
+        <v>850.194499935752</v>
       </c>
       <c r="E16" t="n">
-        <v>417.9607561231137</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="F16" t="n">
-        <v>246.0989818976742</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G16" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5457,31 +5457,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338089</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563989</v>
       </c>
       <c r="U16" t="n">
-        <v>1799.805466766237</v>
+        <v>1869.241345563989</v>
       </c>
       <c r="V16" t="n">
-        <v>1518.093999374266</v>
+        <v>1869.241345563989</v>
       </c>
       <c r="W16" t="n">
-        <v>1243.241595546779</v>
+        <v>1594.388941736502</v>
       </c>
       <c r="X16" t="n">
-        <v>1000.677698992584</v>
+        <v>1594.388941736502</v>
       </c>
       <c r="Y16" t="n">
-        <v>774.3349306823259</v>
+        <v>1368.046173426244</v>
       </c>
     </row>
     <row r="17">
@@ -5503,58 +5503,58 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4659.050190787242</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399955</v>
@@ -5585,37 +5585,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1191.617659878699</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1013.511272808982</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1542.018283751469</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1267.165879923982</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1024.601983369787</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1024.601983369787</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
@@ -5743,7 +5743,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2398.817321261059</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1085.715267670341</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C22" t="n">
-        <v>913.7427045492574</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D22" t="n">
-        <v>750.4259316760281</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.629556101561</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>2112.629556101561</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>1832.445107601865</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V22" t="n">
-        <v>1550.733640209894</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W22" t="n">
-        <v>1275.881236382407</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X22" t="n">
-        <v>1275.881236382407</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.881236382407</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6068,16 +6068,16 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>109.7493563677404</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1992.33777973203</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1710.626312340059</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1435.773908512572</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1193.210011958377</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1185.483835930065</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6229,19 +6229,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P26" t="n">
         <v>4541.493855905342</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>603.8002552472883</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>2099.621208542961</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1819.436760043265</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>1537.725292651294</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.872888823807</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X28" t="n">
-        <v>1020.308992269612</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y28" t="n">
-        <v>793.966223959354</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>786.1869982294937</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2720.098147267829</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3696.34920575453</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O29" t="n">
-        <v>4541.493855905342</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6542,25 +6542,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>381.4468456473314</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="K30" t="n">
-        <v>381.4468456473314</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="L30" t="n">
-        <v>381.4468456473314</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="M30" t="n">
-        <v>739.6560874287652</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N30" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
         <v>1828.971033901635</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4017.903765402536</v>
+        <v>440.421457337036</v>
       </c>
       <c r="C31" t="n">
-        <v>3845.931202281452</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D31" t="n">
-        <v>3682.614429408222</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E31" t="n">
-        <v>3516.406223561076</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F31" t="n">
-        <v>3344.544449335636</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G31" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>5068.0970569786</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>4958.687866371026</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>4958.687866371026</v>
+        <v>1656.057962133013</v>
       </c>
       <c r="V31" t="n">
-        <v>4676.976398979054</v>
+        <v>1374.346494741041</v>
       </c>
       <c r="W31" t="n">
-        <v>4676.976398979054</v>
+        <v>1099.494090913554</v>
       </c>
       <c r="X31" t="n">
-        <v>4434.41250242486</v>
+        <v>856.9301943593596</v>
       </c>
       <c r="Y31" t="n">
-        <v>4208.069734114601</v>
+        <v>630.5874260491016</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>703.4580346113679</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>703.4580346113679</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>540.1412617381386</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H34" t="n">
         <v>202.0712816655526</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>2235.67712750613</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>2235.67712750613</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>2119.408873334071</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
         <v>435.0679631883226</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6940,43 +6940,43 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>786.1869982294937</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1715.81204584877</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2720.098147267829</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N35" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O35" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399956</v>
@@ -7016,25 +7016,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>109.7493563677404</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L36" t="n">
-        <v>109.7493563677404</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M36" t="n">
-        <v>1165.735894343786</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7253,28 +7253,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>109.7493563677404</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L39" t="n">
-        <v>109.7493563677404</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M39" t="n">
-        <v>275.5106105659859</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N39" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O39" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5554397491844</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>543.5554397491844</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>380.2386668759551</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>960.064176771508</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>733.72140846125</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
@@ -7420,16 +7420,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3086.290586304201</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>3931.435236455013</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P41" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
         <v>4997.579335409525</v>
@@ -7447,16 +7447,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7496,13 +7496,13 @@
         <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>855.0038060102931</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M42" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O42" t="n">
         <v>1910.990343986338</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>163.0650060822632</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>163.0650060822632</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
         <v>102.3027134058285</v>
@@ -7587,34 +7587,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,37 +7636,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L44" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M44" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N44" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
         <v>4997.579335409525</v>
@@ -7684,10 +7684,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399955</v>
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>1191.617659878699</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>681.1568861517115</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>509.1843230306275</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>345.8675501573982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>345.8675501573982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1542.018283751469</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1340.22951972823</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.665623174035</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>871.3228548637771</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>38.06915396219777</v>
       </c>
       <c r="L2" t="n">
-        <v>406.8827156170797</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540533997</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.1676505099908</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641992</v>
+        <v>521.352052964198</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8063,19 +8063,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>123.7003074956784</v>
+        <v>123.7003074956816</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662959</v>
+        <v>506.8734716662948</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675096</v>
+        <v>505.1197193675085</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761901</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587955</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>20.97529217030406</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8148,7 +8148,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>343.9920464223665</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
@@ -8233,10 +8233,10 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q5" t="n">
-        <v>451.134864077236</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8291,25 +8291,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>181.4456529820153</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>111.3736009736648</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
@@ -8476,7 +8476,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,25 +8534,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>97.8252091287798</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>185.9918631203545</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,28 +8765,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>145.3082203566077</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>221.0580860608543</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
@@ -8941,16 +8941,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>611.6066190166136</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N15" t="n">
-        <v>185.1977413813447</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9181,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>124.3756766890881</v>
+        <v>697.1247562874512</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9254,19 +9254,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,16 +9403,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>632.4842746885297</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9716,19 +9716,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>742.2139937908412</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9877,13 +9877,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>566.7209344723409</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>726.5568076874005</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>188.0467246345914</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10199,7 +10199,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>384.9242974632712</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>1121.661155963915</v>
@@ -10211,7 +10211,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>618.9086683272931</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
@@ -10372,7 +10372,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N33" t="n">
-        <v>58.21512474482097</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10588,13 +10588,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>726.5568076874005</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330639</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10664,28 +10664,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>375.1268140734642</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>774.1253005797566</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>849.7962292804214</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>124.3756766890881</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>375.1268140734642</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>190.532390813586</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q41" t="n">
-        <v>397.6042905607445</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11144,16 +11144,16 @@
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>186.3697998820327</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>408.4283502568324</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
@@ -11317,7 +11317,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>397.6042905607445</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11387,19 +11387,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>198.1293616011689</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>111.0890985356039</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>7.527594903728158</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>255.20931118462</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>177.2845055697472</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.98949189919247</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>45.91410070006317</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>46.61660131553296</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>118.5577190788909</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.4304263591269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24621,7 +24621,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>2.326677470262837</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>228.0760643491791</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>132.5908555948602</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>66.33105441802945</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>102.6579252924628</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25323,10 +25323,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>112.8992815977281</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>31.74783566017683</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25599,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>71.98949189919244</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>109.9884867335149</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.9894918991895</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>72.33300340620519</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>556915.2427115982</v>
+        <v>556915.2427115981</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>577673.2831331708</v>
+        <v>577673.2831331707</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>577673.2831331708</v>
+        <v>577673.2831331707</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>577673.2831331708</v>
+        <v>577673.2831331707</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>577673.2831331708</v>
+        <v>577673.2831331707</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>577673.2831331708</v>
+        <v>577673.2831331707</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>577673.2831331708</v>
+        <v>577673.2831331707</v>
       </c>
     </row>
     <row r="14">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509637.3345097678</v>
+        <v>509637.3345097677</v>
       </c>
       <c r="C2" t="n">
         <v>509637.3345097678</v>
@@ -26322,40 +26322,40 @@
         <v>509637.3345097679</v>
       </c>
       <c r="E2" t="n">
-        <v>491776.6027452664</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="F2" t="n">
+        <v>491776.6027452662</v>
+      </c>
+      <c r="G2" t="n">
         <v>491776.6027452663</v>
       </c>
-      <c r="G2" t="n">
-        <v>491776.6027452662</v>
-      </c>
       <c r="H2" t="n">
+        <v>491776.6027452665</v>
+      </c>
+      <c r="I2" t="n">
         <v>491776.6027452663</v>
-      </c>
-      <c r="I2" t="n">
-        <v>491776.6027452664</v>
       </c>
       <c r="J2" t="n">
         <v>491776.6027452665</v>
       </c>
       <c r="K2" t="n">
+        <v>491776.6027452662</v>
+      </c>
+      <c r="L2" t="n">
+        <v>491776.6027452664</v>
+      </c>
+      <c r="M2" t="n">
+        <v>491776.6027452664</v>
+      </c>
+      <c r="N2" t="n">
+        <v>491776.6027452663</v>
+      </c>
+      <c r="O2" t="n">
+        <v>491776.6027452664</v>
+      </c>
+      <c r="P2" t="n">
         <v>491776.6027452665</v>
-      </c>
-      <c r="L2" t="n">
-        <v>491776.6027452665</v>
-      </c>
-      <c r="M2" t="n">
-        <v>491776.6027452665</v>
-      </c>
-      <c r="N2" t="n">
-        <v>491776.6027452664</v>
-      </c>
-      <c r="O2" t="n">
-        <v>491776.6027452662</v>
-      </c>
-      <c r="P2" t="n">
-        <v>491776.6027452662</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695908</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361226</v>
+        <v>23406.83367361261</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802885</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701983</v>
+        <v>18646.6003570201</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203366.9722795535</v>
+        <v>203366.9722795537</v>
       </c>
       <c r="C4" t="n">
         <v>191243.7287526203</v>
@@ -26429,22 +26429,22 @@
         <v>86696.74064784776</v>
       </c>
       <c r="F4" t="n">
-        <v>86696.74064784772</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="G4" t="n">
+        <v>86696.74064784774</v>
+      </c>
+      <c r="H4" t="n">
+        <v>86696.74064784775</v>
+      </c>
+      <c r="I4" t="n">
         <v>86696.74064784776</v>
-      </c>
-      <c r="H4" t="n">
-        <v>86696.74064784772</v>
-      </c>
-      <c r="I4" t="n">
-        <v>86696.74064784778</v>
       </c>
       <c r="J4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="K4" t="n">
-        <v>86696.74064784779</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="L4" t="n">
         <v>86696.74064784776</v>
@@ -26453,13 +26453,13 @@
         <v>86696.74064784776</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784774</v>
+        <v>86696.74064784772</v>
       </c>
       <c r="O4" t="n">
-        <v>86696.74064784779</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="P4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216117</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,7 +26502,7 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
         <v>77750.06218842969</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81104.44333846183</v>
+        <v>81104.44333846196</v>
       </c>
       <c r="C6" t="n">
-        <v>227540.5210461071</v>
+        <v>227540.5210461067</v>
       </c>
       <c r="D6" t="n">
         <v>250947.3547197195</v>
       </c>
       <c r="E6" t="n">
-        <v>111590.4433523484</v>
+        <v>111539.4126901641</v>
       </c>
       <c r="F6" t="n">
-        <v>327329.7999089889</v>
+        <v>327278.7692468045</v>
       </c>
       <c r="G6" t="n">
-        <v>327329.7999089887</v>
+        <v>327278.7692468047</v>
       </c>
       <c r="H6" t="n">
-        <v>327329.7999089889</v>
+        <v>327278.7692468048</v>
       </c>
       <c r="I6" t="n">
-        <v>327329.7999089889</v>
+        <v>327278.7692468044</v>
       </c>
       <c r="J6" t="n">
-        <v>200752.5313287002</v>
+        <v>200701.5006665162</v>
       </c>
       <c r="K6" t="n">
-        <v>308683.1995519692</v>
+        <v>308632.1688897844</v>
       </c>
       <c r="L6" t="n">
-        <v>327329.799908989</v>
+        <v>327278.7692468046</v>
       </c>
       <c r="M6" t="n">
-        <v>147265.9284538213</v>
+        <v>147214.8977916371</v>
       </c>
       <c r="N6" t="n">
-        <v>327329.799908989</v>
+        <v>327278.7692468046</v>
       </c>
       <c r="O6" t="n">
-        <v>327329.7999089887</v>
+        <v>327278.7692468046</v>
       </c>
       <c r="P6" t="n">
-        <v>327329.7999089888</v>
+        <v>327278.7692468047</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539668</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26801,13 +26801,13 @@
         <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539668</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162734</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539668</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162734</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539668</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162734</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27390,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>292.8366080837704</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>85.65786956897676</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>59.33003921451541</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>31.86939354864427</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>42.29092367901671</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>198.7036757366573</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -27833,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>276.5769850937006</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>149.2368932943111</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,16 +27858,16 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>375.6935338973657</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>82.05579374633942</v>
       </c>
     </row>
     <row r="9">
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>115.7088052046608</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>50.78818498941749</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28529,7 +28529,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-2.875092756463952e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-5.779126741819878e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30659,7 +30659,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.827960088325199e-12</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.304553167388431</v>
       </c>
       <c r="L2" t="n">
-        <v>368.5706731844567</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539668</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539668</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101.1852207814489</v>
+        <v>101.1852207814521</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539668</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539668</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539668</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.01063771759206421</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34868,7 +34868,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>323.2431454467661</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
@@ -34953,10 +34953,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q5" t="n">
-        <v>415.010189472638</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35011,25 +35011,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>73.06155854104185</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
@@ -35196,7 +35196,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>75.42597529544646</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>162.8199733981322</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,10 +35430,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>122.2114398442797</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>191.6381265752677</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
@@ -35661,16 +35661,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>574.2156596605895</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N15" t="n">
-        <v>163.8547131678031</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35825,7 +35825,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391506</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35901,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>86.80031487885682</v>
+        <v>659.5493944772199</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>595.2046518540836</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36436,19 +36436,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>719.1172132785132</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>690.7922068925911</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>167.4356103012581</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>361.8275169509432</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>1100.318127750374</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>581.517708971269</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
@@ -37092,7 +37092,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N33" t="n">
-        <v>36.8720965312793</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>690.7922068925911</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>267.0533324336321</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37384,28 +37384,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>752.782272366215</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>86.80031487885682</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>167.4356103012581</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q41" t="n">
-        <v>361.4796159561464</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37864,16 +37864,16 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>163.8547131678031</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37955,7 +37955,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968725</v>
       </c>
       <c r="Q43" t="n">
         <v>128.2829598391535</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
@@ -38037,7 +38037,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>361.4796159561464</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>174.9574718789467</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
